--- a/data_execl/base_data/AudioConfig.xlsx
+++ b/data_execl/base_data/AudioConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="1134">
   <si>
     <t>Id</t>
   </si>
@@ -3426,6 +3426,9 @@
   </si>
   <si>
     <t>x1_battle_BGM_tower</t>
+  </si>
+  <si>
+    <t>x1_NTERFACE_Mainmenu_OpenMission</t>
   </si>
 </sst>
 </file>
@@ -4364,10 +4367,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1082"/>
+  <dimension ref="A1:F1083"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1070" workbookViewId="0">
-      <selection activeCell="L1079" sqref="L1079"/>
+    <sheetView tabSelected="1" topLeftCell="A1045" workbookViewId="0">
+      <selection activeCell="Y1081" sqref="Y1081"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -16724,9 +16727,23 @@
         <v>1132</v>
       </c>
       <c r="D1082">
+        <v>12</v>
+      </c>
+      <c r="E1082">
         <v>1</v>
       </c>
-      <c r="E1082">
+    </row>
+    <row r="1083" spans="2:5">
+      <c r="B1083">
+        <v>1174</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1083">
+        <v>12</v>
+      </c>
+      <c r="E1083">
         <v>1</v>
       </c>
     </row>

--- a/data_execl/base_data/AudioConfig.xlsx
+++ b/data_execl/base_data/AudioConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16160"/>
+    <workbookView windowHeight="23360"/>
   </bookViews>
   <sheets>
     <sheet name="AudioConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1135">
   <si>
     <t>Id</t>
   </si>
@@ -3429,6 +3429,9 @@
   </si>
   <si>
     <t>x1_NTERFACE_Mainmenu_OpenMission</t>
+  </si>
+  <si>
+    <t>cn2-x1_NTERFACE_Mainmenu_OpenMission_Stop</t>
   </si>
 </sst>
 </file>
@@ -4367,10 +4370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1083"/>
+  <dimension ref="A1:F1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1045" workbookViewId="0">
-      <selection activeCell="Y1081" sqref="Y1081"/>
+    <sheetView tabSelected="1" topLeftCell="A1072" workbookViewId="0">
+      <selection activeCell="H1086" sqref="H1086"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -16747,6 +16750,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1084" spans="2:5">
+      <c r="B1084">
+        <v>1175</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D1084">
+        <v>12</v>
+      </c>
+      <c r="E1084">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
